--- a/Note.xlsx
+++ b/Note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="15465" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Completed Projects" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
   <si>
     <t>Mod Chinese Translation
 模组汉化翻译</t>
@@ -257,7 +257,16 @@
     <t>Medieval Civilizations（中世纪国家）</t>
   </si>
   <si>
-    <t>Brave New World（勇敢新世界）</t>
+    <t>Brave New World（美丽新世界）</t>
+  </si>
+  <si>
+    <t>Super Sandbox（超级沙盒）</t>
+  </si>
+  <si>
+    <t>25.10.1</t>
+  </si>
+  <si>
+    <t>Project Allciv（文明大全/全文明）</t>
   </si>
 </sst>
 </file>
@@ -1285,8 +1294,8 @@
   <sheetPr/>
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:K42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2193,6 +2202,38 @@
       <c r="K42" s="4"/>
       <c r="L42" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12">
+      <c r="C43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12">
+      <c r="C44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15465" windowHeight="7845"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Completed Projects" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
   <si>
     <t>Mod Chinese Translation
 模组汉化翻译</t>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>WW2 Nations（二战国家）</t>
+  </si>
+  <si>
+    <t>UncivWarhammer（战锤）</t>
+  </si>
+  <si>
+    <t>25.10.2</t>
   </si>
   <si>
     <t>Modern Europe（现代欧洲）</t>
@@ -267,6 +273,9 @@
   </si>
   <si>
     <t>Project Allciv（文明大全/全文明）</t>
+  </si>
+  <si>
+    <t>完善汉化、修复翻译问题</t>
   </si>
 </sst>
 </file>
@@ -1294,8 +1303,8 @@
   <sheetPr/>
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:K33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1686,7 +1695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:22">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -1703,12 +1712,26 @@
       <c r="L13" t="s">
         <v>8</v>
       </c>
+      <c r="M13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1724,11 +1747,11 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1746,7 +1769,7 @@
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1764,7 +1787,7 @@
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1780,11 +1803,11 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1802,7 +1825,7 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1820,7 +1843,7 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1836,11 +1859,11 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1858,7 +1881,7 @@
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1876,7 +1899,7 @@
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1892,11 +1915,11 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1914,7 +1937,7 @@
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1930,11 +1953,11 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="14">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1950,7 +1973,7 @@
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1966,7 +1989,7 @@
     </row>
     <row r="28" spans="3:12">
       <c r="C28" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1982,7 +2005,7 @@
     </row>
     <row r="29" spans="3:12">
       <c r="C29" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1998,7 +2021,7 @@
     </row>
     <row r="30" spans="3:12">
       <c r="C30" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2009,12 +2032,12 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="3:12">
       <c r="C31" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2025,12 +2048,12 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="3:12">
       <c r="C32" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2041,12 +2064,12 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2057,12 +2080,12 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="3:12">
       <c r="C34" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2073,12 +2096,12 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="3:12">
       <c r="C35" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2089,12 +2112,12 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="3:12">
       <c r="C36" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2110,7 +2133,7 @@
     </row>
     <row r="37" spans="3:12">
       <c r="C37" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2126,7 +2149,7 @@
     </row>
     <row r="38" spans="3:12">
       <c r="C38" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2142,7 +2165,7 @@
     </row>
     <row r="39" spans="3:12">
       <c r="C39" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2158,7 +2181,7 @@
     </row>
     <row r="40" spans="3:12">
       <c r="C40" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2174,7 +2197,7 @@
     </row>
     <row r="41" spans="3:12">
       <c r="C41" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2190,7 +2213,7 @@
     </row>
     <row r="42" spans="3:12">
       <c r="C42" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2206,7 +2229,7 @@
     </row>
     <row r="43" spans="3:12">
       <c r="C43" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2217,12 +2240,12 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="3:12">
       <c r="C44" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2233,7 +2256,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2360,14 +2383,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
   <mergeCells count="50">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B2:K2"/>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Completed Projects" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
   <si>
     <t>Mod Chinese Translation
 模组汉化翻译</t>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Modern Europe（现代欧洲）</t>
+  </si>
+  <si>
+    <t>LOTR reworked（指环王）</t>
   </si>
   <si>
     <t>In the plan
@@ -1303,8 +1306,8 @@
   <sheetPr/>
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:U13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1727,7 +1730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:22">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -1744,14 +1747,28 @@
       <c r="L14" t="s">
         <v>8</v>
       </c>
+      <c r="M14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1769,7 +1786,7 @@
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1787,7 +1804,7 @@
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1803,11 +1820,11 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1825,7 +1842,7 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1843,7 +1860,7 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1859,11 +1876,11 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1881,7 +1898,7 @@
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1899,7 +1916,7 @@
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1915,11 +1932,11 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1937,7 +1954,7 @@
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1953,11 +1970,11 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="14">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1973,7 +1990,7 @@
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1989,7 +2006,7 @@
     </row>
     <row r="28" spans="3:12">
       <c r="C28" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2005,7 +2022,7 @@
     </row>
     <row r="29" spans="3:12">
       <c r="C29" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2021,7 +2038,7 @@
     </row>
     <row r="30" spans="3:12">
       <c r="C30" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2032,12 +2049,12 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="3:12">
       <c r="C31" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2048,12 +2065,12 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="3:12">
       <c r="C32" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2064,12 +2081,12 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2080,12 +2097,12 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="3:12">
       <c r="C34" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2096,12 +2113,12 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="3:12">
       <c r="C35" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2112,12 +2129,12 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="3:12">
       <c r="C36" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2133,7 +2150,7 @@
     </row>
     <row r="37" spans="3:12">
       <c r="C37" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2149,7 +2166,7 @@
     </row>
     <row r="38" spans="3:12">
       <c r="C38" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2165,7 +2182,7 @@
     </row>
     <row r="39" spans="3:12">
       <c r="C39" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2181,7 +2198,7 @@
     </row>
     <row r="40" spans="3:12">
       <c r="C40" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2197,7 +2214,7 @@
     </row>
     <row r="41" spans="3:12">
       <c r="C41" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2213,7 +2230,7 @@
     </row>
     <row r="42" spans="3:12">
       <c r="C42" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2229,7 +2246,7 @@
     </row>
     <row r="43" spans="3:12">
       <c r="C43" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2240,12 +2257,12 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="3:12">
       <c r="C44" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2256,7 +2273,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2385,7 +2402,7 @@
   <sheetPr/>
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
@@ -2396,7 +2413,7 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
   <si>
     <t>Mod Chinese Translation
 模组汉化翻译</t>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Project Allciv（文明大全/全文明）</t>
+  </si>
+  <si>
+    <t>Latin American_Civs（拉丁美洲）</t>
   </si>
   <si>
     <t>完善汉化、修复翻译问题</t>
@@ -1306,7 +1309,7 @@
   <sheetPr/>
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:B26"/>
     </sheetView>
   </sheetViews>
@@ -1970,7 +1973,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="4" t="s">
@@ -2274,6 +2277,22 @@
       <c r="K44" s="4"/>
       <c r="L44" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="C45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2432,7 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="19305" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Completed Projects" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
   <si>
     <t>Mod Chinese Translation
 模组汉化翻译</t>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>The Knights Templar（圣殿骑士团）</t>
+  </si>
+  <si>
+    <t>Ark s UNCIV Evolved（方舟帝国-进化）</t>
+  </si>
+  <si>
+    <t>25.10.4</t>
   </si>
   <si>
     <t>Future Worlds（未来世界）</t>
@@ -1309,8 +1315,8 @@
   <sheetPr/>
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B26"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1765,7 +1771,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:22">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -1784,12 +1790,26 @@
       <c r="L15" t="s">
         <v>8</v>
       </c>
+      <c r="M15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1807,7 +1827,7 @@
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1823,11 +1843,11 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1845,7 +1865,7 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1863,7 +1883,7 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1879,11 +1899,11 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1901,7 +1921,7 @@
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1919,7 +1939,7 @@
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1935,11 +1955,11 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1957,7 +1977,7 @@
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1973,11 +1993,11 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="14">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1993,7 +2013,7 @@
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2009,7 +2029,7 @@
     </row>
     <row r="28" spans="3:12">
       <c r="C28" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2025,7 +2045,7 @@
     </row>
     <row r="29" spans="3:12">
       <c r="C29" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2041,7 +2061,7 @@
     </row>
     <row r="30" spans="3:12">
       <c r="C30" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2052,12 +2072,12 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="3:12">
       <c r="C31" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2068,12 +2088,12 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="3:12">
       <c r="C32" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2084,12 +2104,12 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2100,12 +2120,12 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="3:12">
       <c r="C34" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2116,12 +2136,12 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="3:12">
       <c r="C35" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2132,12 +2152,12 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="3:12">
       <c r="C36" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2153,7 +2173,7 @@
     </row>
     <row r="37" spans="3:12">
       <c r="C37" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2169,7 +2189,7 @@
     </row>
     <row r="38" spans="3:12">
       <c r="C38" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2185,7 +2205,7 @@
     </row>
     <row r="39" spans="3:12">
       <c r="C39" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2201,7 +2221,7 @@
     </row>
     <row r="40" spans="3:12">
       <c r="C40" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2217,7 +2237,7 @@
     </row>
     <row r="41" spans="3:12">
       <c r="C41" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2233,7 +2253,7 @@
     </row>
     <row r="42" spans="3:12">
       <c r="C42" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2249,7 +2269,7 @@
     </row>
     <row r="43" spans="3:12">
       <c r="C43" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2260,12 +2280,12 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="3:12">
       <c r="C44" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2276,12 +2296,12 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="3:12">
       <c r="C45" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2432,7 +2452,7 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19305" windowHeight="9600"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Completed Projects" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
   <si>
     <t>Mod Chinese Translation
 模组汉化翻译</t>
@@ -181,7 +181,16 @@
     <t>Future Worlds（未来世界）</t>
   </si>
   <si>
+    <t>Adventure Time Mod（探险时光）</t>
+  </si>
+  <si>
+    <t>25.10.5</t>
+  </si>
+  <si>
     <t>Great New World Mod（大新世界）</t>
+  </si>
+  <si>
+    <t>Spaciv（太空文明）</t>
   </si>
   <si>
     <t>Temporarily
@@ -285,6 +294,12 @@
   </si>
   <si>
     <t>Latin American_Civs（拉丁美洲）</t>
+  </si>
+  <si>
+    <t>Project All Slavs（全斯拉夫文明）</t>
+  </si>
+  <si>
+    <t>Bavaria Project（巴伐利亚）</t>
   </si>
   <si>
     <t>完善汉化、修复翻译问题</t>
@@ -1315,8 +1330,8 @@
   <sheetPr/>
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1805,7 +1820,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:22">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4" t="s">
@@ -1822,12 +1837,26 @@
       <c r="L16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1840,14 +1869,28 @@
       <c r="L17" t="s">
         <v>8</v>
       </c>
+      <c r="M17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1865,7 +1908,7 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1883,7 +1926,7 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1899,11 +1942,11 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1921,7 +1964,7 @@
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1939,7 +1982,7 @@
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1955,11 +1998,11 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1977,7 +2020,7 @@
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1993,11 +2036,11 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="14">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2013,7 +2056,7 @@
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2029,7 +2072,7 @@
     </row>
     <row r="28" spans="3:12">
       <c r="C28" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2045,7 +2088,7 @@
     </row>
     <row r="29" spans="3:12">
       <c r="C29" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2061,7 +2104,7 @@
     </row>
     <row r="30" spans="3:12">
       <c r="C30" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2072,12 +2115,12 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="3:12">
       <c r="C31" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2088,12 +2131,12 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="3:12">
       <c r="C32" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2104,12 +2147,12 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2120,12 +2163,12 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="3:12">
       <c r="C34" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2136,12 +2179,12 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="3:12">
       <c r="C35" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2152,12 +2195,12 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="3:12">
       <c r="C36" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2173,7 +2216,7 @@
     </row>
     <row r="37" spans="3:12">
       <c r="C37" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2189,7 +2232,7 @@
     </row>
     <row r="38" spans="3:12">
       <c r="C38" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2205,7 +2248,7 @@
     </row>
     <row r="39" spans="3:12">
       <c r="C39" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2221,7 +2264,7 @@
     </row>
     <row r="40" spans="3:12">
       <c r="C40" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2237,7 +2280,7 @@
     </row>
     <row r="41" spans="3:12">
       <c r="C41" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2253,7 +2296,7 @@
     </row>
     <row r="42" spans="3:12">
       <c r="C42" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2269,7 +2312,7 @@
     </row>
     <row r="43" spans="3:12">
       <c r="C43" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2280,12 +2323,12 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="3:12">
       <c r="C44" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2296,12 +2339,12 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="3:12">
       <c r="C45" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2313,6 +2356,38 @@
       <c r="K45" s="4"/>
       <c r="L45" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12">
+      <c r="C47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2452,7 +2527,7 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
